--- a/result.xlsx
+++ b/result.xlsx
@@ -664,7 +664,7 @@
         <v>20357.5</v>
       </c>
       <c r="E8" s="12" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -831,7 +831,7 @@
       </c>
       <c r="C26" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">之一 1 团子 2 立衡 4 米加 6 </t>
+          <t xml:space="preserve">之一 1 团子 4 立衡 6 米加 7 </t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="C27" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">之一 880.0 团子 3504.5 立衡 9460.0 米加 11513.0 </t>
+          <t xml:space="preserve">之一 880.0 团子 10137.5 立衡 13840.0 米加 15193.0 </t>
         </is>
       </c>
     </row>
@@ -964,6 +964,9 @@
         <is>
           <t>销售提成=基本工资+f*50+(B+D)*0.05+(C+E)*0.01+（F-f*500）*0.01</t>
         </is>
+      </c>
+      <c r="D39" t="n">
+        <v>4331.375</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="22400" windowWidth="29340" xWindow="4320" yWindow="500"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="22395" windowWidth="29340" xWindow="4320" yWindow="495"/>
   </bookViews>
   <sheets>
     <sheet name="需要生成的" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="140000" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -69,6 +69,7 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="3"/>
       <color theme="0" tint="-0.249977111117893"/>
       <sz val="12"/>
       <scheme val="minor"/>
@@ -76,6 +77,7 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="3"/>
       <color theme="6" tint="-0.249977111117893"/>
       <sz val="12"/>
       <scheme val="minor"/>
@@ -83,24 +85,9 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="3"/>
       <b val="1"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="6" tint="-0.249977111117893"/>
       <sz val="12"/>
       <scheme val="minor"/>
     </font>
@@ -171,59 +158,59 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="普通" xfId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
     <cellStyle builtinId="8" hidden="1" name="超链接" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="访问过的超链接" xfId="2"/>
+    <cellStyle builtinId="9" hidden="1" name="已访问的超链接" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -558,309 +545,312 @@
   <dimension ref="A2:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="C18" sqref="C18:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.75" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="16" width="10.7109375"/>
-    <col customWidth="1" max="2" min="2" style="16" width="25.85546875"/>
-    <col customWidth="1" max="3" min="3" style="16" width="62"/>
-    <col customWidth="1" max="4" min="4" style="16" width="14.140625"/>
-    <col customWidth="1" max="5" min="5" style="16" width="8.140625"/>
-    <col customWidth="1" max="16384" min="6" style="16" width="10.7109375"/>
+    <col customWidth="1" max="1" min="1" style="11" width="10.75"/>
+    <col customWidth="1" max="2" min="2" style="11" width="25.875"/>
+    <col customWidth="1" max="3" min="3" style="11" width="62"/>
+    <col customWidth="1" max="4" min="4" style="11" width="14.125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="11" width="72.625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="11" width="88.25"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="11" width="171.375"/>
+    <col customWidth="1" max="8" min="8" style="11" width="10.75"/>
+    <col customWidth="1" max="16384" min="9" style="11" width="10.75"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22" r="2">
-      <c r="B2" s="9" t="inlineStr">
+    <row customHeight="1" ht="21.95" r="2">
+      <c r="B2" s="13" t="inlineStr">
         <is>
           <t>2019年12月营业额</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="D3" s="16" t="inlineStr">
+      <c r="D3" s="11" t="inlineStr">
         <is>
           <t>金额</t>
         </is>
       </c>
-      <c r="E3" s="16" t="inlineStr">
+      <c r="E3" s="11" t="inlineStr">
         <is>
           <t>条数</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="inlineStr">
+      <c r="A4" s="11" t="inlineStr">
         <is>
           <t>定金</t>
         </is>
       </c>
-      <c r="B4" s="16" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
         <is>
           <t>定金时间为12月</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>定金金额（媒介渠道为“续订”以外所有之和）</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>53180</v>
-      </c>
-      <c r="E4" s="12" t="n">
-        <v>43</v>
+      <c r="D4" s="1" t="n">
+        <v>70520</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="4" t="n"/>
-      <c r="E5" s="12" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="E5" s="4" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="16" t="inlineStr">
+      <c r="A6" s="11" t="inlineStr">
         <is>
           <t>续订</t>
         </is>
       </c>
-      <c r="B6" s="16" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>续订金额为12月</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>定金金额（媒介渠道为“续订”）</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>34820</v>
-      </c>
-      <c r="E6" s="12" t="n">
-        <v>13</v>
+      <c r="D6" s="1" t="n">
+        <v>48635</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="4" t="n"/>
-      <c r="E7" s="12" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="E7" s="4" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="inlineStr">
+      <c r="A8" s="11" t="inlineStr">
         <is>
           <t>尾款</t>
         </is>
       </c>
-      <c r="B8" s="16" t="inlineStr">
+      <c r="B8" s="11" t="inlineStr">
         <is>
           <t>拍摄日期为12月</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>尾款金额</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>20357.5</v>
-      </c>
-      <c r="E8" s="12" t="n">
-        <v>19</v>
+      <c r="D8" s="1" t="n">
+        <v>139400</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="9">
-      <c r="C9" s="4" t="n"/>
-      <c r="E9" s="12" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="E9" s="4" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="inlineStr">
+      <c r="A10" s="11" t="inlineStr">
         <is>
           <t>加片</t>
         </is>
       </c>
-      <c r="B10" s="16" t="inlineStr">
+      <c r="B10" s="11" t="inlineStr">
         <is>
           <t>选片加片为12月</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>金额</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="E10" s="12" t="n">
+      <c r="D10" s="1" t="n">
+        <v>4219</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="3" t="n"/>
+      <c r="E11" s="4" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="inlineStr">
+        <is>
+          <t>另加</t>
+        </is>
+      </c>
+      <c r="B12" s="11" t="inlineStr">
+        <is>
+          <t>回家另加为12月</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>金额</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="E12" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="C11" s="4" t="n"/>
-      <c r="E11" s="12" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="16" t="inlineStr">
-        <is>
-          <t>另加</t>
-        </is>
-      </c>
-      <c r="B12" s="16" t="inlineStr">
-        <is>
-          <t>回家另加为12月</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>金额</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="C13" s="4" t="n"/>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="12" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="4" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="inlineStr">
+      <c r="A14" s="12" t="inlineStr">
         <is>
           <t>销售</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B14" s="12" t="inlineStr">
         <is>
           <t>定金时间为12月</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr">
+      <c r="C14" s="12" t="inlineStr">
         <is>
           <t>删选定金金额&gt;=500，并且媒介渠道为“续订”以外的总金额</t>
         </is>
       </c>
-      <c r="D14" s="14" t="n">
-        <v>53180</v>
-      </c>
-      <c r="E14" s="15" t="n">
-        <v>41</v>
+      <c r="D14" s="6" t="n">
+        <v>70520</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="48" r="16" s="16"/>
+      <c r="B15" s="12" t="n"/>
+      <c r="C15" s="12" t="n"/>
+      <c r="D15" s="12" t="n"/>
+      <c r="E15" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="48" r="16"/>
     <row r="17">
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B17" s="14" t="inlineStr">
         <is>
           <t>总营业额=</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>a+b+c+d+e</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="16" t="inlineStr">
+      <c r="B18" s="11" t="inlineStr">
         <is>
           <t>按介绍人分类-金额占比</t>
         </is>
       </c>
-      <c r="C18" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carrie 0.46% sam 0.46% 之一 2.21% 团子 0.46% 小红书 3.39% 张慧 0.46% 御姐萌妹 2.28% 点评 12.34% 熊妈 2.28% 老客户 51.39% 金钥匙 1.86% 默认 22.4% </t>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carrie 0.19% Eggo 1.02% Esther 1.21% Hazel 1.13% KOL-喵妈 0.45% KOL-小土大橙子 2.83% cecilia 1.59% jane 0.47% laurel zhang 0.56% sam 0.19% xiaohan 1.32% 之一 0.91% 周梦凉 0.19% 嘻格格 0.11% 团子 0.75% 大众点评 9.63% 家芮 0.75% 小柠檬 1.36% 小红书 1.4% 幼岚 0.93% 张慧 0.19% 徐易欣 0.41% 御姐萌妹 0.94% 机构-tinyhands 0.75% 梦雅 1.66% 点评 5.09% 熊妈 1.52% 米虫 0.19% 素人招募 0.19% 老客户 43.96% 金钥匙 0.77% 默认 17.32% </t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="16" t="inlineStr">
+      <c r="B19" s="11" t="inlineStr">
         <is>
           <t>按媒介渠道-金额占比</t>
         </is>
       </c>
-      <c r="C19" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">小红书 3.39% 点评 14.02% 续订 32.08% 默认 50.51% </t>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">公众号 0.19% 大众点评 2.23% 小红书 1.4% 朋友圈 4.77% 点评 5.78% 续订 22.44% 默认 63.2% </t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="16" t="inlineStr">
+      <c r="B20" s="11" t="inlineStr">
         <is>
           <t>按参加活动-金额占比</t>
         </is>
       </c>
-      <c r="C20" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">无 0.46% 正价 1.77% 默认 97.77% </t>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">双十一活动 0.39% 圣诞中奖 0.11% 圣诞照 0.11% 大众点评团购 2.49% 折扣 0.45% 无 0.19% 正价 0.73% 默认 95.52% </t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="16" t="inlineStr">
+      <c r="B21" s="11" t="inlineStr">
         <is>
           <t>按类型-金额占比</t>
         </is>
       </c>
-      <c r="C21" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">平日特惠 2.28% 正价 32.23% 正价折扣 48.1% 超低价促销 10.24% 默认 7.15% </t>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">免拍 0.11% 平日特惠 0.94% 正价 54.29% 正价折扣 35.23% 正价拼团 1.95% 超低价促销 4.34% 默认 3.14% </t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="10" t="inlineStr">
+      <c r="B25" s="15" t="inlineStr">
         <is>
           <t>拍摄情况</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="16" t="inlineStr">
+      <c r="B26" s="11" t="inlineStr">
         <is>
           <t>按摄影师统计-拍摄条数</t>
         </is>
       </c>
-      <c r="C26" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">之一 1 团子 4 立衡 6 米加 7 </t>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">之一 9 团子 14 小琪 4 立衡 32 米加 32 </t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="16" t="inlineStr">
+      <c r="B27" s="11" t="inlineStr">
         <is>
           <t>按摄影师统计-拍摄服务金额</t>
         </is>
       </c>
-      <c r="C27" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">之一 880.0 团子 10137.5 立衡 13840.0 米加 15193.0 </t>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">之一 17211.0 团子 32639.5 小琪 16220.0 立衡 88265.5 米加 86991.0 </t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="16" t="inlineStr">
+      <c r="B28" s="11" t="inlineStr">
         <is>
           <t>按摄影师统计-当月续订金额</t>
         </is>
       </c>
-      <c r="C28" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">立衡 2 米加 1  | 立衡 4980.0 米加 4480.0 </t>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">之一 1 团子 2 小琪 1 立衡 15 米加 7  | 之一 1490.0 团子 3960.0 小琪 4880.0 立衡 54334.0 米加 17544.0 </t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="11" t="inlineStr">
+      <c r="B30" s="16" t="inlineStr">
         <is>
           <t>人员工资</t>
         </is>
@@ -882,91 +872,82 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="6" t="inlineStr">
+      <c r="B31" s="10" t="inlineStr">
         <is>
           <t>拍摄团队</t>
         </is>
       </c>
-      <c r="C31" s="16" t="inlineStr">
-        <is>
-          <t>拍摄日期为当月时，摄影师/化妆师/引导师为“某人”时的总服务金额</t>
-        </is>
-      </c>
-      <c r="D31" s="16" t="inlineStr">
-        <is>
-          <t>米加、10、果冻</t>
-        </is>
-      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">之一 880.0 团子 10137.5 立衡 13840.0 米加 15193.0 </t>
+          <t xml:space="preserve">之一 17211.0 团子 32639.5 小琪 16220.0 立衡 88265.5 米加 86991.0 </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 24037.5 summer 7960.0 王婵 3860.0 胡悠 2980.0 默认 2713.0 </t>
+          <t xml:space="preserve">10 145721.5 summer 10840.0 朱修月 3980.0 王婵 19262.0 胡悠 17604.0 舒兰 5380.0 默认 50299.5 </t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">小茹 8860.0 徐珍 880.0 果冻 27876.5 熊妈 14484.5 胡清 6960.0 阿哲 2020.0 默认 134.0 </t>
+          <t xml:space="preserve">Emily 3960.0 培培 7920.0 小佩 2102.0 小茹 34992.0 徐珍 10710.0 志博 6780.0 果冻 150646.0 熊妈 40486.5 王丹 3680.0 肖肖 13361.0 胡小佩 9900.0 胡清 12571.0 阿哲 14518.0 陈晓 7660.0 黄志博 22200.0 默认 2816.0 </t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="C32" s="16" t="inlineStr">
-        <is>
-          <t>选片日期为当月时，摄影师/化妆师/引导师为“某人”时的选片加片金额</t>
-        </is>
-      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">立衡 200.0 </t>
+          <t xml:space="preserve">小琪 700.0 立衡 1199.0 米加 2320.0 </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 200.0 summer 200.0 </t>
+          <t xml:space="preserve">10 1200.0 Sara 1740.0 summer 200.0 胡悠 1679.0 默认 300.0 </t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">熊妈 200.0 </t>
+          <t xml:space="preserve">之一 1240.0 团子 500.0 小佩 199.0 小茹 979.0 志博 700.0 果冻 1000.0 熊妈 500.0 鸣鸣 500.0 黄志博 300.0 </t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="C33" s="16" t="inlineStr">
-        <is>
-          <t>选片日期为当月时，摄影师/化妆师/引导师为“某人”时的续订金额</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">立衡 4860.0 米加 2975.0 </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sara 2880.0 胡悠 1980.0 默认 2975.0 </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">团子 2880.0 小佩 1980.0 小茹 1980.0 熊妈 2975.0 鸣鸣 2880.0 </t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">小茹 11140.0 果冻 15320.0 熊妈 7560.0 胡清 3480.0 </t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="B35" s="7" t="inlineStr">
+      <c r="B35" s="12" t="inlineStr">
         <is>
           <t>销售</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="C36" s="16" t="inlineStr">
-        <is>
-          <t>删选定金金额&gt;=500，并且媒介渠道为“续订”以外的总条数</t>
-        </is>
-      </c>
-    </row>
+    <row r="36"/>
     <row r="39">
-      <c r="C39" s="13" t="inlineStr">
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>销售提成=基本工资+f*50+(B+D)*0.05+(C+E)*0.01+（F-f*500）*0.01</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4331.375</v>
+        <v>7536.900000000001</v>
       </c>
     </row>
   </sheetData>
